--- a/data/trans_camb/P1418-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1418-Clase-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.902035808763133</v>
+        <v>-5.683386133815961</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.865538242371501</v>
+        <v>-4.773088348016485</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.940044921682278</v>
+        <v>-3.860737545891783</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-9.547480707068525</v>
+        <v>-9.646467443303058</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-7.759604776488459</v>
+        <v>-8.287405852376185</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-6.60354845555418</v>
+        <v>-6.328443234865408</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-6.454538534492403</v>
+        <v>-6.215193567943742</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-4.944546894798429</v>
+        <v>-5.160301001661281</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-3.944406725718971</v>
+        <v>-3.963715342864744</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.403192181929409</v>
+        <v>-1.674657749792119</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.2204953010203146</v>
+        <v>-0.3806487300855971</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5779263942455956</v>
+        <v>0.7310650383585573</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-2.259225494373282</v>
+        <v>-2.463733116235459</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.3447332856386877</v>
+        <v>-0.386072384844111</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7452789178303965</v>
+        <v>0.9597133909835304</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-2.535740494367743</v>
+        <v>-2.435345398765801</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-0.8282239915494967</v>
+        <v>-0.9922051301595989</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02541071370832642</v>
+        <v>0.1624290452871118</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.9510364847993111</v>
+        <v>-0.9506798648521174</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8571410877199118</v>
+        <v>-0.8438040801191679</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6702451777536885</v>
+        <v>-0.6772054469472419</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.8793494177514976</v>
+        <v>-0.8965345047588632</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7785725459972624</v>
+        <v>-0.7696780903774546</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.6004904967706277</v>
+        <v>-0.5955108007168365</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.8771687447561894</v>
+        <v>-0.8711541755470481</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.7198894914828015</v>
+        <v>-0.7195028099541613</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.5442631428005547</v>
+        <v>-0.5537761870895941</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.3941170123344923</v>
+        <v>-0.4141210435053768</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.03117632344390054</v>
+        <v>-0.05572185906723257</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.2538046231784423</v>
+        <v>0.2716139170030794</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.2846327916675608</v>
+        <v>-0.3449156901642815</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04411977879565005</v>
+        <v>0.003419143612161279</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1636657090073277</v>
+        <v>0.2226182460732246</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.5184421871027429</v>
+        <v>-0.4988749694453319</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1755184739582003</v>
+        <v>-0.1916264476433536</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.01819699430981304</v>
+        <v>0.06454008564146843</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-3.508815435259607</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.003396253269316585</v>
+        <v>0.003396253269317973</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-2.083065389004887</v>
@@ -878,7 +878,7 @@
         <v>-3.785821616299613</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-1.256741429363308</v>
+        <v>-1.25674142936331</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.722953570032054</v>
+        <v>-5.611708340741528</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.90671449089197</v>
+        <v>-6.70335602977933</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.322391976184094</v>
+        <v>-5.156913951668645</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.071994677654412</v>
+        <v>-4.284501572942777</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-6.572784063689159</v>
+        <v>-6.220520959196966</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.546647293698649</v>
+        <v>-3.074711141048299</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-4.397457613107919</v>
+        <v>-4.302561221994637</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.683764809259577</v>
+        <v>-5.52711155193752</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-3.325616498891722</v>
+        <v>-3.43104238746421</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.4877050207370621</v>
+        <v>-0.4948974841508121</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.047361617733027</v>
+        <v>-2.108780459959235</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-0.05045853351222802</v>
+        <v>-0.1237569091605964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.643025840157363</v>
+        <v>2.581572313175501</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.8059751674499235</v>
+        <v>-0.6088971520476943</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.825344246841758</v>
+        <v>3.066630433095394</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>-0.1112632551891142</v>
+        <v>0.06211285300050066</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.895886144635382</v>
+        <v>-1.931827714749613</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4624254245281842</v>
+        <v>0.7020419753995625</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>-0.8509247885058138</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.4831410189569774</v>
+        <v>-0.4831410189569775</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.1436692015568582</v>
@@ -974,7 +974,7 @@
         <v>-0.6172298377011562</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005974292158963898</v>
+        <v>0.0005974292158966339</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.3987910418072931</v>
@@ -983,7 +983,7 @@
         <v>-0.7247740538677591</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.240596011312732</v>
+        <v>-0.2405960113127323</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.8850310687264242</v>
+        <v>-0.8871206085838897</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.9642541371352694</v>
+        <v>-0.9650246938567031</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7588802024972805</v>
+        <v>-0.773706912352674</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5622370639653493</v>
+        <v>-0.5806774587929872</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8669434566099268</v>
+        <v>-0.8457296021455354</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.472150464160233</v>
+        <v>-0.4233519461329089</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.6503833127497066</v>
+        <v>-0.6678647507681748</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8742329316374288</v>
+        <v>-0.8733547431228359</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5022671252308382</v>
+        <v>-0.5084829762393579</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.01833654726447736</v>
+        <v>-0.01228945230983287</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.5241443145996102</v>
+        <v>-0.5290109425731022</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.06029019829456798</v>
+        <v>0.01639137880373924</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.6822402360221449</v>
+        <v>0.684082965031176</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.1245348217398149</v>
+        <v>-0.0535235234349374</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7023527619804177</v>
+        <v>0.7551984649881636</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04357114166555858</v>
+        <v>0.01643105773848334</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.464670968366836</v>
+        <v>-0.4595331958986173</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.1143355282255476</v>
+        <v>0.2071017910080193</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>-3.30874923139787</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.021317454736437</v>
+        <v>1.021317454736438</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-5.128323121124808</v>
+        <v>-5.068011083627026</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.650946353557366</v>
+        <v>-6.232348704525069</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.610840243571647</v>
+        <v>-3.576078319624015</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.28318350962871</v>
+        <v>-4.864224425860511</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-7.879520043022054</v>
+        <v>-7.807623748373649</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.776967879317557</v>
+        <v>-1.767882273695151</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.826095741669404</v>
+        <v>-3.544026487729511</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-5.686701035246202</v>
+        <v>-5.717801320434393</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.620226619007518</v>
+        <v>-1.282986262310038</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.009060126453398818</v>
+        <v>0.02491998160786906</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.721290058572962</v>
+        <v>-1.375446020914595</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.053412484208809</v>
+        <v>1.98364810238923</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.403038019696407</v>
+        <v>7.954307019739332</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.305325797694691</v>
+        <v>5.630181504606355</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>11.00908492158827</v>
+        <v>11.12753779105637</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.293488733586119</v>
+        <v>1.329453050801354</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-1.127901290097179</v>
+        <v>-1.030322047027568</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>3.666831339046191</v>
+        <v>3.73865977422546</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>-0.4876650475094297</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.1505284294016549</v>
+        <v>0.1505284294016551</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6883862696712318</v>
+        <v>-0.6868497998864913</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.8534246475769263</v>
+        <v>-0.8522285457372483</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5106632257019504</v>
+        <v>-0.4912626697763147</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.40416275022947</v>
+        <v>-0.3822902233165746</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.613660200051821</v>
+        <v>-0.5885565072023333</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1706026852811925</v>
+        <v>-0.149462769239076</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4668804493252147</v>
+        <v>-0.4365829355292025</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.6948194255518162</v>
+        <v>-0.7049092985353391</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.20292137577539</v>
+        <v>-0.1674369293841284</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.0381549872722623</v>
+        <v>0.04601928156145815</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.3381775122255607</v>
+        <v>-0.3009651066003118</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.494330720759075</v>
+        <v>0.502382053199643</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.215700545190454</v>
+        <v>1.302123223747874</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8178051533980559</v>
+        <v>0.922811400185248</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.715792530117628</v>
+        <v>1.657830837618652</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2368779417474501</v>
+        <v>0.2453526653379847</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.1783140225863019</v>
+        <v>-0.170172840973779</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.669847720358816</v>
+        <v>0.6541596397527819</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>-3.279226482106511</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.17850628145473</v>
+        <v>-1.178506281454729</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>-1.698188192407409</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.975833437088869</v>
+        <v>-3.910705818453846</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-5.587049901268498</v>
+        <v>-5.581925703827069</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.832286185989552</v>
+        <v>-2.700280023435666</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-4.280089277673388</v>
+        <v>-4.128780003619767</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-5.690327642949246</v>
+        <v>-5.814871104769727</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.547045256304914</v>
+        <v>-3.66522856798051</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-3.295698706887338</v>
+        <v>-3.352589556209658</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-4.970020373532728</v>
+        <v>-5.104474547688015</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.328559935810861</v>
+        <v>-2.408670880796359</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.06819864919733575</v>
+        <v>-0.1149962909370662</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.27272341605055</v>
+        <v>-2.151732110536979</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9413542046658093</v>
+        <v>1.059596103882531</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.200012310224244</v>
+        <v>1.103659506394178</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.7947539218106657</v>
+        <v>-0.9710372990302585</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.206661137042627</v>
+        <v>0.9969075604691896</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-0.003705287100957834</v>
+        <v>-0.1335177233307327</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-2.038194235270328</v>
+        <v>-2.262369164729995</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.4102805497102202</v>
+        <v>0.5584157642949493</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>-0.4123339321336867</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.1481868153139338</v>
+        <v>-0.1481868153139336</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>-0.2377642808013652</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5155789570295587</v>
+        <v>-0.5191436380499688</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7323043548931177</v>
+        <v>-0.7294122853098446</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.369227925919949</v>
+        <v>-0.349448703626092</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4607612248690029</v>
+        <v>-0.4371975333446238</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.6138081572426755</v>
+        <v>-0.6201792165432652</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3716815610333516</v>
+        <v>-0.3668020495510851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4116197779087878</v>
+        <v>-0.4206839852860301</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6295106183255522</v>
+        <v>-0.6385075167873369</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.2951666437455969</v>
+        <v>-0.294817849992577</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.0003196721886335501</v>
+        <v>-0.007830632249256699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.3843662453738069</v>
+        <v>-0.390551488501224</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1686590676832983</v>
+        <v>0.2064000602940431</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1827393066166717</v>
+        <v>0.191390707159477</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.1100552755297189</v>
+        <v>-0.1365849365330389</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1966745510876961</v>
+        <v>0.1521931147393024</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.002425490693886924</v>
+        <v>-0.02067328648394822</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3070852866272727</v>
+        <v>-0.3462121343109003</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.05971880902552967</v>
+        <v>0.09199576927182306</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-2.230297841652139</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-2.506167848437863</v>
+        <v>-2.506167848437862</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>1.886214122682757</v>
@@ -1520,7 +1520,7 @@
         <v>-2.237966305885954</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>0.1888095844181564</v>
+        <v>0.1888095844181537</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-7.182704386742479</v>
+        <v>-6.877402451451814</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.39927101816176</v>
+        <v>-6.051497252488101</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.77544799656083</v>
+        <v>-5.938881672384783</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.049933312962327</v>
+        <v>-2.190980465368902</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-5.04866147528915</v>
+        <v>-5.341674089899278</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-1.266925268878689</v>
+        <v>-0.8836712625259849</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.895994949364297</v>
+        <v>-2.925269365195768</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-4.951586291480256</v>
+        <v>-4.800949843043792</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-2.275205437031584</v>
+        <v>-2.183470786653075</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.6026171127154732</v>
+        <v>-0.3945967896916802</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9508705325333698</v>
+        <v>0.6033461575739721</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4503024466708512</v>
+        <v>0.5428955191461424</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5.416533324690407</v>
+        <v>5.387958210803352</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.922229391848448</v>
+        <v>1.674531996593752</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.051834229978243</v>
+        <v>5.560058953379894</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.378039147821025</v>
+        <v>2.300175947684382</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.09081753177403658</v>
+        <v>0.1820648849769306</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>2.46735712128378</v>
+        <v>2.516459793230304</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.3167342873052262</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.3559117856448369</v>
+        <v>-0.3559117856448368</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.1660924074801069</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2304558090504349</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.01944277061684235</v>
+        <v>0.01944277061684207</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.7471679077036918</v>
+        <v>-0.7518873232731589</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5909287788053738</v>
+        <v>-0.6305920951470412</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6135972895919826</v>
+        <v>-0.6100471228882025</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1511239828116927</v>
+        <v>-0.1598803093069317</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3876034243072491</v>
+        <v>-0.3954315542446395</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.09506457741254826</v>
+        <v>-0.07093180794754497</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2541680500120904</v>
+        <v>-0.2560102261417226</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4378355284926866</v>
+        <v>-0.4267448355672539</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.197092318708188</v>
+        <v>-0.1949109574990145</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.09223912162675031</v>
+        <v>-0.04072401297686853</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2198900372603353</v>
+        <v>0.1328977574183597</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.1368308928174035</v>
+        <v>0.1288930476605623</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.5699546818439171</v>
+        <v>0.581660208852782</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.2036611370500003</v>
+        <v>0.1742900989988192</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.5203444946906164</v>
+        <v>0.6179261181140638</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.2970413593507927</v>
+        <v>0.2786942329473208</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.01573448936499816</v>
+        <v>0.006421588764276589</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.309185429039559</v>
+        <v>0.3110091596130022</v>
       </c>
     </row>
     <row r="34">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.255621200168145</v>
+        <v>-1.323251717938729</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.448446458989947</v>
+        <v>-2.565642433790733</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.9171314119867738</v>
+        <v>-0.9789184673199003</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-2.542094500555921</v>
+        <v>-2.56615765364097</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-5.53517448037424</v>
+        <v>-5.681807519626324</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.960872143322426</v>
+        <v>-6.295199263092561</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.2944580334282</v>
+        <v>-2.084303094994451</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.993939898156888</v>
+        <v>-4.810585177494985</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-5.137532908344075</v>
+        <v>-5.271276862942941</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.858056426066107</v>
+        <v>1.939224073862528</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.2755689334905967</v>
+        <v>-0.2738898777872602</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6.172863307759411</v>
+        <v>6.652760052464456</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.800763116342179</v>
+        <v>2.892102633726876</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-0.07314474468687664</v>
+        <v>-0.4191318094780254</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>-1.44870771794818</v>
+        <v>-1.495588176369682</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>2.205493585236712</v>
+        <v>2.446505274572134</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>-0.5811852213877746</v>
+        <v>-0.5288852107726987</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>-0.9413334533361727</v>
+        <v>-0.9608296944184546</v>
       </c>
     </row>
     <row r="37">
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.1854569833850267</v>
+        <v>-0.1880949612150808</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3935469962915977</v>
+        <v>-0.4067062587634405</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.4320426022741284</v>
+        <v>-0.4539313056112393</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1998414773139607</v>
+        <v>-0.1794607485439749</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.4305545065908161</v>
+        <v>-0.4276587522032546</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4409471225573305</v>
+        <v>-0.4524394431380795</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.2454202129864285</v>
+        <v>0.2534408128171535</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.003790716743006894</v>
+        <v>-0.02636817322784979</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>-0.1188050924414634</v>
+        <v>-0.1371533193495893</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.2345894418150383</v>
+        <v>0.258481329068594</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>-0.05910800247367687</v>
+        <v>-0.06604100488384908</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>-0.09314572014975465</v>
+        <v>-0.09711814163172572</v>
       </c>
     </row>
     <row r="40">
@@ -1927,7 +1927,7 @@
         <v>-3.021352272294411</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>-1.234101842349815</v>
+        <v>-1.234101842349816</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-1.357752360835336</v>
@@ -1936,7 +1936,7 @@
         <v>-3.03027039270005</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-1.195564427166641</v>
+        <v>-1.19556442716664</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-3.306436942641884</v>
+        <v>-3.32827560319392</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.948584673810299</v>
+        <v>-3.974823417293499</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.246380641507184</v>
+        <v>-2.199995575701507</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.845373752616078</v>
+        <v>-1.88062553474409</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-4.345603227718174</v>
+        <v>-4.304436065629207</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.607682385093544</v>
+        <v>-2.481596793668199</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-2.279573997637022</v>
+        <v>-2.286100949867289</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-3.963509931699246</v>
+        <v>-3.935276729541803</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-2.078759951790556</v>
+        <v>-2.000609789648857</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-1.312682536308879</v>
+        <v>-1.306898870410167</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.103464991480612</v>
+        <v>-2.054054671599596</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-0.131134346488222</v>
+        <v>-0.03460057963210776</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1.003972366568283</v>
+        <v>1.127596220586187</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-1.693408727069841</v>
+        <v>-1.538063677467682</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-0.005201278797309567</v>
+        <v>0.08634113050471613</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-0.3817986909958542</v>
+        <v>-0.4640961031085589</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-2.195004038678039</v>
+        <v>-2.156658367775311</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>-0.4029136804745795</v>
+        <v>-0.3690543644891219</v>
       </c>
     </row>
     <row r="43">
@@ -2032,7 +2032,7 @@
         <v>-0.297433771685441</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>-0.1214898272472244</v>
+        <v>-0.1214898272472245</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1728488133602248</v>
@@ -2041,7 +2041,7 @@
         <v>-0.3857689050281448</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.1522014606583424</v>
+        <v>-0.1522014606583422</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5504429677815358</v>
+        <v>-0.552139152573271</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.6619430895297758</v>
+        <v>-0.6607213704873423</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.3679226681289284</v>
+        <v>-0.3590972694528856</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1715729424677382</v>
+        <v>-0.1743014217422768</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3972145637662718</v>
+        <v>-0.3924968615403782</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.2362532913747658</v>
+        <v>-0.2228815386211995</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.276264539490581</v>
+        <v>-0.2774502928363859</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4731616218549037</v>
+        <v>-0.4676556667419066</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.249609948699193</v>
+        <v>-0.2375203298858783</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.2719608756848784</v>
+        <v>-0.2678193302224098</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.4367574455324691</v>
+        <v>-0.4193233510059475</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.02057400994188768</v>
+        <v>-0.005490465487749469</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1041907140844583</v>
+        <v>0.1190480324919243</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1721513473715051</v>
+        <v>-0.1616608688704183</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.0005233506521463507</v>
+        <v>0.009634656919232001</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.05204681518018501</v>
+        <v>-0.06569417151728993</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2911832616331329</v>
+        <v>-0.2921206373080401</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>-0.05497899138800019</v>
+        <v>-0.05016358389094251</v>
       </c>
     </row>
     <row r="46">
